--- a/example_reports/EJEMPLO-DATOS-VENTAS(FACTURACIÓN).xlsx
+++ b/example_reports/EJEMPLO-DATOS-VENTAS(FACTURACIÓN).xlsx
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="3">
-        <v>43385</v>
+        <v>43386</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>29</v>
@@ -633,7 +633,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="3">
-        <v>43385</v>
+        <v>43386</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>29</v>
@@ -699,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="E4" s="3">
-        <v>43385</v>
+        <v>43386</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>29</v>
@@ -765,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="E5" s="3">
-        <v>43385</v>
+        <v>43386</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
